--- a/prompt.xlsx
+++ b/prompt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARTBREEDER_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE368A-9893-45B6-A80A-F52E9CB8CB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5B8345-D194-4A86-8B38-CC69D958D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21720" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Looking up through the spaceship's viewport, the warrior witnesses a blood-colored sky split open, clad in a helmet with tribal engravings, awe-struck expression, adult female with pale lavender skin, the vastness of space visible beyond the ship, ethereal lighting illuminating her features, captured from a bird's eye view, Alien Tribal Futurism, rich hues of red and black, high detail, alien spaceship</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>PROMPT</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -405,129 +408,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
